--- a/src/attributions/attributions_saliency_traj_174.xlsx
+++ b/src/attributions/attributions_saliency_traj_174.xlsx
@@ -1004,571 +1004,571 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7.965229451656342e-05</v>
+        <v>4.455909675016301e-06</v>
       </c>
       <c r="B2" t="n">
-        <v>1.533084287075326e-05</v>
+        <v>9.205042260873597e-06</v>
       </c>
       <c r="C2" t="n">
-        <v>3.561905396054499e-05</v>
+        <v>4.230657395964954e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>1.735119803925045e-05</v>
+        <v>1.755677112669218e-05</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0002188188664149493</v>
+        <v>5.044951194577152e-06</v>
       </c>
       <c r="F2" t="n">
-        <v>7.252509385580197e-05</v>
+        <v>3.301192464277847e-06</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001024567827698775</v>
+        <v>3.318652943562483e-06</v>
       </c>
       <c r="H2" t="n">
-        <v>2.19109369936632e-05</v>
+        <v>7.318550387935829e-07</v>
       </c>
       <c r="I2" t="n">
-        <v>2.367917841183953e-05</v>
+        <v>9.850509741227143e-09</v>
       </c>
       <c r="J2" t="n">
-        <v>8.481975237373263e-05</v>
+        <v>6.186631253513042e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>3.227417255402543e-05</v>
+        <v>9.169313671009149e-06</v>
       </c>
       <c r="L2" t="n">
-        <v>6.41234073555097e-05</v>
+        <v>3.293581585239735e-06</v>
       </c>
       <c r="M2" t="n">
-        <v>5.180429980100598e-06</v>
+        <v>1.703796442598104e-05</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0001914891763590276</v>
+        <v>6.103691703174263e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>3.165176531183533e-05</v>
+        <v>9.94392394204624e-06</v>
       </c>
       <c r="P2" t="n">
-        <v>1.167092705145478e-06</v>
+        <v>2.918900236181798e-06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.383679409627803e-05</v>
+        <v>6.010649485688191e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.802336191758513e-05</v>
+        <v>5.806295121146832e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.600320476631168e-05</v>
+        <v>1.788164468052855e-06</v>
       </c>
       <c r="T2" t="n">
-        <v>2.344758104300126e-05</v>
+        <v>3.575190930860117e-06</v>
       </c>
       <c r="U2" t="n">
-        <v>1.544643237139098e-05</v>
+        <v>6.538504067066242e-07</v>
       </c>
       <c r="V2" t="n">
-        <v>6.966968066990376e-05</v>
+        <v>5.241259941612952e-07</v>
       </c>
       <c r="W2" t="n">
-        <v>1.027957750920905e-05</v>
+        <v>3.610903377193608e-06</v>
       </c>
       <c r="X2" t="n">
-        <v>7.611550927322241e-07</v>
+        <v>3.855596787616378e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>2.217375367763452e-07</v>
+        <v>1.321437935075664e-06</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.466293724661227e-06</v>
+        <v>4.135320068598958e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>6.179668162076268e-06</v>
+        <v>6.40971791199263e-08</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.250012741773389e-05</v>
+        <v>4.678169716498815e-06</v>
       </c>
       <c r="AC2" t="n">
-        <v>2.354407115490176e-05</v>
+        <v>2.732114353420911e-06</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.002721526485402e-06</v>
+        <v>6.725566663590143e-07</v>
       </c>
       <c r="AE2" t="n">
-        <v>4.953431198373437e-05</v>
+        <v>3.875572019751417e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.153670357074589e-05</v>
+        <v>9.481014785706066e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>1.057782128555118e-07</v>
+        <v>1.728783217913588e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>8.619328582426533e-06</v>
+        <v>5.750873697252246e-07</v>
       </c>
       <c r="AI2" t="n">
-        <v>3.997496969532222e-05</v>
+        <v>2.382170350756496e-06</v>
       </c>
       <c r="AJ2" t="n">
-        <v>6.775876681786031e-05</v>
+        <v>2.697339141377597e-06</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.219247860717587e-05</v>
+        <v>3.086616288783262e-06</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.575068745296448e-05</v>
+        <v>6.103949090174865e-06</v>
       </c>
       <c r="AM2" t="n">
-        <v>3.661614027805626e-05</v>
+        <v>3.741173770777095e-08</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.189700899180025e-05</v>
+        <v>2.785063315968728e-06</v>
       </c>
       <c r="AO2" t="n">
-        <v>2.348272028029896e-05</v>
+        <v>1.31326686414468e-07</v>
       </c>
       <c r="AP2" t="n">
-        <v>4.275012906873599e-05</v>
+        <v>9.286210342906998e-07</v>
       </c>
       <c r="AQ2" t="n">
-        <v>9.177639185509179e-06</v>
+        <v>3.99171199205739e-07</v>
       </c>
       <c r="AR2" t="n">
-        <v>3.94254966522567e-05</v>
+        <v>9.421074764759396e-07</v>
       </c>
       <c r="AS2" t="n">
-        <v>9.534431228530593e-06</v>
+        <v>1.092115098799695e-06</v>
       </c>
       <c r="AT2" t="n">
-        <v>1.947164128068835e-05</v>
+        <v>1.304628312936984e-06</v>
       </c>
       <c r="AU2" t="n">
-        <v>2.866130671463907e-06</v>
+        <v>1.957826270881924e-06</v>
       </c>
       <c r="AV2" t="n">
-        <v>5.4900719987927e-06</v>
+        <v>6.360157840390457e-07</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.604980207048357e-05</v>
+        <v>9.013463568408042e-06</v>
       </c>
       <c r="AX2" t="n">
-        <v>9.51145266299136e-05</v>
+        <v>2.404086444585118e-06</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.692449404799845e-05</v>
+        <v>2.581680291768862e-06</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1.650408376008272e-05</v>
+        <v>3.735320206033066e-06</v>
       </c>
       <c r="BA2" t="n">
-        <v>2.691473855520599e-05</v>
+        <v>1.109772028939915e-06</v>
       </c>
       <c r="BB2" t="n">
-        <v>5.342160511645488e-05</v>
+        <v>3.779425014727167e-06</v>
       </c>
       <c r="BC2" t="n">
-        <v>5.142539157532156e-05</v>
+        <v>7.592063866468379e-07</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.211524067912251e-05</v>
+        <v>4.447267201612704e-06</v>
       </c>
       <c r="BE2" t="n">
-        <v>5.455318387248553e-06</v>
+        <v>2.167930915675242e-06</v>
       </c>
       <c r="BF2" t="n">
-        <v>3.498005389701575e-05</v>
+        <v>6.514524102385622e-06</v>
       </c>
       <c r="BG2" t="n">
-        <v>8.745624654693529e-05</v>
+        <v>1.722807496662426e-07</v>
       </c>
       <c r="BH2" t="n">
-        <v>4.148706284468062e-05</v>
+        <v>2.431590928608784e-06</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.869411789812148e-07</v>
+        <v>8.240793363256671e-07</v>
       </c>
       <c r="BJ2" t="n">
-        <v>4.439711847226135e-05</v>
+        <v>8.444558261544444e-07</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.457587313780095e-05</v>
+        <v>2.436998329358175e-06</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.473512475058669e-05</v>
+        <v>7.634957000846043e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.797238292056136e-05</v>
+        <v>6.750322881998727e-06</v>
       </c>
       <c r="BN2" t="n">
-        <v>2.440784737700596e-05</v>
+        <v>5.580485549216974e-07</v>
       </c>
       <c r="BO2" t="n">
-        <v>8.362696462427266e-06</v>
+        <v>1.732041027935338e-06</v>
       </c>
       <c r="BP2" t="n">
-        <v>1.45929686823365e-06</v>
+        <v>2.279071509292407e-07</v>
       </c>
       <c r="BQ2" t="n">
-        <v>4.441140845301561e-05</v>
+        <v>7.407707016682252e-07</v>
       </c>
       <c r="BR2" t="n">
-        <v>4.339320366852917e-05</v>
+        <v>1.46752108776127e-06</v>
       </c>
       <c r="BS2" t="n">
-        <v>3.019551695615519e-05</v>
+        <v>8.705353593541076e-07</v>
       </c>
       <c r="BT2" t="n">
-        <v>5.072638305136934e-05</v>
+        <v>1.34377501126437e-06</v>
       </c>
       <c r="BU2" t="n">
-        <v>1.810423236747738e-05</v>
+        <v>3.337422413096647e-06</v>
       </c>
       <c r="BV2" t="n">
-        <v>6.589540134882554e-06</v>
+        <v>3.463362645561574e-06</v>
       </c>
       <c r="BW2" t="n">
-        <v>6.107512490416411e-06</v>
+        <v>1.771563233887719e-07</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.597103255335242e-05</v>
+        <v>2.555092351030908e-06</v>
       </c>
       <c r="BY2" t="n">
-        <v>6.742559344274923e-05</v>
+        <v>4.488684680836741e-06</v>
       </c>
       <c r="BZ2" t="n">
-        <v>2.707869725782075e-06</v>
+        <v>1.230981183653057e-06</v>
       </c>
       <c r="CA2" t="n">
-        <v>3.212599767721258e-05</v>
+        <v>2.457375103404047e-06</v>
       </c>
       <c r="CB2" t="n">
-        <v>4.964552135788836e-05</v>
+        <v>8.327323257617536e-07</v>
       </c>
       <c r="CC2" t="n">
-        <v>1.722216256894171e-05</v>
+        <v>2.291004875587532e-06</v>
       </c>
       <c r="CD2" t="n">
-        <v>8.911645636544563e-06</v>
+        <v>3.847126208711416e-06</v>
       </c>
       <c r="CE2" t="n">
-        <v>1.571599568706006e-05</v>
+        <v>5.144679562363308e-07</v>
       </c>
       <c r="CF2" t="n">
-        <v>7.118511348380707e-06</v>
+        <v>1.175289639832044e-06</v>
       </c>
       <c r="CG2" t="n">
-        <v>1.115349186875392e-05</v>
+        <v>5.184277142689098e-06</v>
       </c>
       <c r="CH2" t="n">
-        <v>4.058301419718191e-05</v>
+        <v>1.449140881959465e-06</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.5493531464017e-05</v>
+        <v>1.167097934740013e-06</v>
       </c>
       <c r="CJ2" t="n">
-        <v>2.189574479416478e-05</v>
+        <v>6.758955919394793e-07</v>
       </c>
       <c r="CK2" t="n">
-        <v>2.344045969948638e-05</v>
+        <v>1.426233779966424e-06</v>
       </c>
       <c r="CL2" t="n">
-        <v>5.417458396550501e-06</v>
+        <v>8.790408401182503e-07</v>
       </c>
       <c r="CM2" t="n">
-        <v>1.588246050232556e-06</v>
+        <v>1.294945832341909e-06</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.328337930317502e-05</v>
+        <v>2.890373025365989e-07</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.077039895695634e-05</v>
+        <v>1.10516418772022e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>4.474423985811882e-05</v>
+        <v>6.122013019194128e-06</v>
       </c>
       <c r="CQ2" t="n">
-        <v>3.653951353044249e-05</v>
+        <v>1.491121111030225e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.78975096787326e-05</v>
+        <v>1.262801106349798e-06</v>
       </c>
       <c r="CS2" t="n">
-        <v>2.879835665225983e-05</v>
+        <v>5.890597549296217e-06</v>
       </c>
       <c r="CT2" t="n">
-        <v>1.915154098242056e-05</v>
+        <v>6.464986199716805e-06</v>
       </c>
       <c r="CU2" t="n">
-        <v>8.579400855524e-06</v>
+        <v>4.782070391229354e-06</v>
       </c>
       <c r="CV2" t="n">
-        <v>4.802928742719814e-06</v>
+        <v>4.34826324635651e-06</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.243548831553198e-05</v>
+        <v>8.682716838848137e-07</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.085163603420369e-07</v>
+        <v>2.587231335837714e-07</v>
       </c>
       <c r="CY2" t="n">
-        <v>2.429128926451085e-06</v>
+        <v>3.992436631961027e-06</v>
       </c>
       <c r="CZ2" t="n">
-        <v>4.418733806232922e-05</v>
+        <v>9.000235650091781e-07</v>
       </c>
       <c r="DA2" t="n">
-        <v>8.98867983778473e-06</v>
+        <v>1.974964106921107e-06</v>
       </c>
       <c r="DB2" t="n">
-        <v>2.85364640149055e-05</v>
+        <v>4.269768396625295e-07</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.318806582479738e-05</v>
+        <v>1.602152224222664e-06</v>
       </c>
       <c r="DD2" t="n">
-        <v>1.111435631173663e-05</v>
+        <v>6.517249175885809e-07</v>
       </c>
       <c r="DE2" t="n">
-        <v>2.160485564672854e-05</v>
+        <v>1.102373971662018e-06</v>
       </c>
       <c r="DF2" t="n">
-        <v>5.939863694948144e-05</v>
+        <v>1.034006709232926e-05</v>
       </c>
       <c r="DG2" t="n">
-        <v>4.554799306788482e-05</v>
+        <v>4.636474841390736e-06</v>
       </c>
       <c r="DH2" t="n">
-        <v>3.270811430411413e-05</v>
+        <v>3.575565187929897e-06</v>
       </c>
       <c r="DI2" t="n">
-        <v>6.7020213464275e-05</v>
+        <v>6.192657565406989e-06</v>
       </c>
       <c r="DJ2" t="n">
-        <v>4.017056926386431e-05</v>
+        <v>8.242560397775378e-06</v>
       </c>
       <c r="DK2" t="n">
-        <v>5.250497633824125e-05</v>
+        <v>8.350368261744734e-06</v>
       </c>
       <c r="DL2" t="n">
-        <v>2.647739893291146e-05</v>
+        <v>1.304898546550248e-06</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.962017267942429e-05</v>
+        <v>2.258996346427011e-06</v>
       </c>
       <c r="DN2" t="n">
-        <v>9.382874850416556e-07</v>
+        <v>3.767326688830508e-06</v>
       </c>
       <c r="DO2" t="n">
-        <v>2.482787749613635e-05</v>
+        <v>1.903560814753291e-06</v>
       </c>
       <c r="DP2" t="n">
-        <v>4.688819899456576e-06</v>
+        <v>4.937413450534223e-06</v>
       </c>
       <c r="DQ2" t="n">
-        <v>2.103445694956463e-05</v>
+        <v>7.410770194837824e-06</v>
       </c>
       <c r="DR2" t="n">
-        <v>1.389392309647519e-05</v>
+        <v>2.237893284018355e-07</v>
       </c>
       <c r="DS2" t="n">
-        <v>3.361699418746866e-05</v>
+        <v>2.893659711844521e-07</v>
       </c>
       <c r="DT2" t="n">
-        <v>1.26201712191687e-05</v>
+        <v>5.119186425872613e-07</v>
       </c>
       <c r="DU2" t="n">
-        <v>2.546052564866841e-05</v>
+        <v>2.325170726180659e-06</v>
       </c>
       <c r="DV2" t="n">
-        <v>1.201369195769075e-05</v>
+        <v>1.231585201821872e-06</v>
       </c>
       <c r="DW2" t="n">
-        <v>3.367346380400704e-06</v>
+        <v>5.408468496170826e-06</v>
       </c>
       <c r="DX2" t="n">
-        <v>3.684403782244772e-05</v>
+        <v>3.748946710402379e-06</v>
       </c>
       <c r="DY2" t="n">
-        <v>1.0270370694343e-05</v>
+        <v>2.500181324194273e-07</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3.535389987519011e-05</v>
+        <v>2.875735162888304e-06</v>
       </c>
       <c r="EA2" t="n">
-        <v>4.13567504438106e-05</v>
+        <v>1.497568860031606e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>2.313683762622532e-05</v>
+        <v>4.595774498739047e-06</v>
       </c>
       <c r="EC2" t="n">
-        <v>8.365000212506857e-06</v>
+        <v>2.605865120131057e-06</v>
       </c>
       <c r="ED2" t="n">
-        <v>2.811213107634103e-06</v>
+        <v>4.311170869186753e-06</v>
       </c>
       <c r="EE2" t="n">
-        <v>3.114554783678614e-05</v>
+        <v>1.980506795007386e-06</v>
       </c>
       <c r="EF2" t="n">
-        <v>2.838430009433068e-05</v>
+        <v>6.638699119321245e-07</v>
       </c>
       <c r="EG2" t="n">
-        <v>2.012931190620293e-06</v>
+        <v>5.483608447320876e-07</v>
       </c>
       <c r="EH2" t="n">
-        <v>4.167753559158882e-06</v>
+        <v>2.189221959270071e-07</v>
       </c>
       <c r="EI2" t="n">
-        <v>2.625008528411854e-05</v>
+        <v>8.719311153981835e-06</v>
       </c>
       <c r="EJ2" t="n">
-        <v>3.085022035520524e-05</v>
+        <v>1.561034082442347e-06</v>
       </c>
       <c r="EK2" t="n">
-        <v>4.203322532703169e-05</v>
+        <v>1.088003045879304e-06</v>
       </c>
       <c r="EL2" t="n">
-        <v>7.477815415768418e-06</v>
+        <v>4.906456751996302e-08</v>
       </c>
       <c r="EM2" t="n">
-        <v>5.002504622098058e-05</v>
+        <v>4.11404244005098e-06</v>
       </c>
       <c r="EN2" t="n">
-        <v>3.443738023634069e-06</v>
+        <v>1.550146180306911e-06</v>
       </c>
       <c r="EO2" t="n">
-        <v>8.731132766115479e-06</v>
+        <v>6.550527359650005e-06</v>
       </c>
       <c r="EP2" t="n">
-        <v>3.356924571562558e-05</v>
+        <v>3.246510686949478e-07</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.458342012483627e-06</v>
+        <v>4.134831669944106e-06</v>
       </c>
       <c r="ER2" t="n">
-        <v>2.126741674146615e-05</v>
+        <v>3.578722726160777e-06</v>
       </c>
       <c r="ES2" t="n">
-        <v>9.379205948789604e-06</v>
+        <v>9.215174259225023e-07</v>
       </c>
       <c r="ET2" t="n">
-        <v>2.378065801167395e-05</v>
+        <v>5.424971277534496e-06</v>
       </c>
       <c r="EU2" t="n">
-        <v>2.704546204768121e-05</v>
+        <v>1.450876197850448e-06</v>
       </c>
       <c r="EV2" t="n">
-        <v>3.42312159773428e-05</v>
+        <v>1.062828346221067e-06</v>
       </c>
       <c r="EW2" t="n">
-        <v>5.214064731262624e-05</v>
+        <v>1.782460685717524e-06</v>
       </c>
       <c r="EX2" t="n">
-        <v>9.840050552156754e-06</v>
+        <v>5.237563982518623e-06</v>
       </c>
       <c r="EY2" t="n">
-        <v>1.466389767301735e-05</v>
+        <v>1.184384814223449e-06</v>
       </c>
       <c r="EZ2" t="n">
-        <v>3.878391908074263e-06</v>
+        <v>3.61653576419485e-07</v>
       </c>
       <c r="FA2" t="n">
-        <v>2.752916088866186e-06</v>
+        <v>5.19750847161049e-06</v>
       </c>
       <c r="FB2" t="n">
-        <v>3.949198435293511e-05</v>
+        <v>1.462932800677663e-06</v>
       </c>
       <c r="FC2" t="n">
-        <v>1.202181465487229e-08</v>
+        <v>1.029273221320182e-06</v>
       </c>
       <c r="FD2" t="n">
-        <v>1.481983417761512e-05</v>
+        <v>3.383596549610957e-07</v>
       </c>
       <c r="FE2" t="n">
-        <v>2.472705637046602e-05</v>
+        <v>8.140576710502501e-07</v>
       </c>
       <c r="FF2" t="n">
-        <v>3.520722202665638e-06</v>
+        <v>1.854866809480882e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.222143146151211e-05</v>
+        <v>2.589453288237564e-06</v>
       </c>
       <c r="FH2" t="n">
-        <v>1.638282810745295e-05</v>
+        <v>5.964837328065187e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.162589796877e-05</v>
+        <v>1.571892653373652e-06</v>
       </c>
       <c r="FJ2" t="n">
-        <v>2.12839622690808e-05</v>
+        <v>3.651229235401843e-06</v>
       </c>
       <c r="FK2" t="n">
-        <v>9.00204850040609e-06</v>
+        <v>4.337920472607948e-06</v>
       </c>
       <c r="FL2" t="n">
-        <v>5.847552984050708e-07</v>
+        <v>9.420044762009638e-07</v>
       </c>
       <c r="FM2" t="n">
-        <v>2.119855344062671e-05</v>
+        <v>2.854961167031433e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>4.498210728343111e-06</v>
+        <v>1.73725277363701e-06</v>
       </c>
       <c r="FO2" t="n">
-        <v>1.863207035057712e-05</v>
+        <v>9.754629672897863e-07</v>
       </c>
       <c r="FP2" t="n">
-        <v>9.36995456868317e-06</v>
+        <v>9.350585969514214e-06</v>
       </c>
       <c r="FQ2" t="n">
-        <v>6.409450725186616e-05</v>
+        <v>4.711398105428088e-06</v>
       </c>
       <c r="FR2" t="n">
-        <v>3.767078305827454e-05</v>
+        <v>1.660178213569452e-06</v>
       </c>
       <c r="FS2" t="n">
-        <v>0.0001107161078834906</v>
+        <v>7.997701345630048e-07</v>
       </c>
       <c r="FT2" t="n">
-        <v>6.130628753453493e-05</v>
+        <v>4.265496045263717e-08</v>
       </c>
       <c r="FU2" t="n">
-        <v>7.150541705414071e-07</v>
+        <v>2.602544100227533e-06</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.538703327241819e-05</v>
+        <v>1.230737871082965e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>1.06880979728885e-05</v>
+        <v>7.731640835118014e-06</v>
       </c>
       <c r="FX2" t="n">
-        <v>1.496644927101443e-05</v>
+        <v>1.191286060020502e-06</v>
       </c>
       <c r="FY2" t="n">
-        <v>1.02806825452717e-05</v>
+        <v>1.063293166225776e-05</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.516531665401999e-05</v>
+        <v>1.167537789115158e-06</v>
       </c>
       <c r="GA2" t="n">
-        <v>2.262560701637994e-05</v>
+        <v>9.162807145912666e-06</v>
       </c>
       <c r="GB2" t="n">
-        <v>1.308768241869984e-05</v>
+        <v>3.14813814838999e-06</v>
       </c>
       <c r="GC2" t="n">
-        <v>3.252744136261754e-05</v>
+        <v>4.080553026142297e-06</v>
       </c>
       <c r="GD2" t="n">
-        <v>5.038495874032378e-05</v>
+        <v>5.84699000683031e-06</v>
       </c>
       <c r="GE2" t="n">
-        <v>8.618617357569747e-06</v>
+        <v>4.0700124372961e-06</v>
       </c>
       <c r="GF2" t="n">
-        <v>6.849619239801541e-05</v>
+        <v>4.487087153393077e-06</v>
       </c>
       <c r="GG2" t="n">
-        <v>2.574162863311358e-05</v>
+        <v>3.321365966257872e-06</v>
       </c>
     </row>
     <row r="3">
